--- a/component/upload/excel.xlsx
+++ b/component/upload/excel.xlsx
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,6 +440,11 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
